--- a/New/Book2.xlsx
+++ b/New/Book2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,59 +434,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Claim</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
-          <t>one</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>vinay</t>
+          <t>Srinivas</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
-          <t>two</t>
+          <t>2</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
-          <t>Lilly</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>three</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Laxmi</t>
+          <t>Vinay</t>
         </is>
       </c>
     </row>
